--- a/Sample/Excel/Test.xlsx
+++ b/Sample/Excel/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingf\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScorpioConversion\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>/Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t>!TestArrayString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!TestDateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,6 +167,81 @@
   <si>
     <t>[[[100;100],[200,200]];100];    
 [[200;200];200]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Default</t>
+  </si>
+  <si>
+    <t>TestInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FileName</t>
+  </si>
+  <si>
+    <t>/Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ackageName</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字，不填默认使用 file或sheet名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,103 +592,146 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Sample/Excel/Test.xlsx
+++ b/Sample/Excel/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScorpioConversion\Sample\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ScorpioConversion\Sample\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>/Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,11 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[100;100];100];
-[[200;200];201]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testEnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,11 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[[100;100],[200,200]];100];    
-[[200;200];200]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestDateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,9 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/FileName</t>
-  </si>
-  <si>
     <t>/Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,7 +228,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字，不填默认使用 file或sheet名字</t>
+    <t>[[[100;100]];100];
+[[[200;200]];201]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[100;100]];100];
+[[[200;200]];201]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,21 +585,21 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
@@ -615,123 +608,115 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+      <c r="A4" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
